--- a/23. Matrizes de Rastreabilidade.xlsx
+++ b/23. Matrizes de Rastreabilidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Downloads\OPE_RequestSolved-master\OPE_RequestSolved-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A5DB0-F2D8-411F-9001-0E7E1BFC3C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EBBD5-C6C4-46F5-AC03-BBACE575E15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{F94308BC-F477-401C-97D2-B5E38B917FC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F94308BC-F477-401C-97D2-B5E38B917FC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
   <si>
     <t>Campo de busca (pesquisa)</t>
   </si>
@@ -211,13 +211,19 @@
   </si>
   <si>
     <t>SSS-008</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SSS-009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +264,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +292,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -325,16 +347,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,8 +387,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2C64ABC2-C2F8-4D29-9500-9B4F71EA7C1C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,873 +701,1258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A3413-757F-4E53-9BFA-D7F27BEF603E}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K52" sqref="B1:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="86.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
